--- a/Экзамены _вопросы_1семестр_В01-ВТ-121/Базы и банки данных ВТ-121.xlsx
+++ b/Экзамены _вопросы_1семестр_В01-ВТ-121/Базы и банки данных ВТ-121.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC5CA98-783F-4872-8C56-6F8C79DCC885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="30240" yWindow="1440" windowWidth="27000" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="564">
   <si>
     <t>Дайте определение понятию «База данных»</t>
   </si>
@@ -1705,13 +1706,16 @@
   </si>
   <si>
     <t xml:space="preserve"> поле, на значения которое ссылаются другие поля </t>
+  </si>
+  <si>
+    <t>Желтым правильный ответ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1734,13 +1738,28 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -1807,7 +1826,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -1839,19 +1858,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1889,7 +1934,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1923,6 +1968,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1957,9 +2003,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2132,28 +2179,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F150"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F133" sqref="F133"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="95.25" thickBot="1">
+    <row r="1" spans="1:17" ht="94.2" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -2168,12 +2215,23 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="48" thickBot="1">
+      <c r="I1" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+    </row>
+    <row r="2" spans="1:17" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -2189,11 +2247,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="63.75" thickBot="1">
+    <row r="3" spans="1:17" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -2209,11 +2267,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="95.25" thickBot="1">
+    <row r="4" spans="1:17" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -2229,11 +2287,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="32.25" thickBot="1">
+    <row r="5" spans="1:17" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -2249,11 +2307,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="95.25" thickBot="1">
+    <row r="6" spans="1:17" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -2269,11 +2327,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="95.25" thickBot="1">
+    <row r="7" spans="1:17" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -2289,11 +2347,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="63.75" thickBot="1">
+    <row r="8" spans="1:17" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -2309,11 +2367,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="63.75" thickBot="1">
+    <row r="9" spans="1:17" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -2329,11 +2387,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="63.75" thickBot="1">
+    <row r="10" spans="1:17" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="13" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -2349,11 +2407,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="95.25" thickBot="1">
+    <row r="11" spans="1:17" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="12" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -2369,11 +2427,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="48" thickBot="1">
+    <row r="12" spans="1:17" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="12" t="s">
         <v>47</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -2389,11 +2447,11 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="48" thickBot="1">
+    <row r="13" spans="1:17" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="12" t="s">
         <v>53</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -2409,11 +2467,11 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="95.25" thickBot="1">
+    <row r="14" spans="1:17" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="12" t="s">
         <v>59</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -2429,11 +2487,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="63.75" thickBot="1">
+    <row r="15" spans="1:17" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="12" t="s">
         <v>65</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -2449,11 +2507,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="189.75" thickBot="1">
+    <row r="16" spans="1:17" ht="187.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="12" t="s">
         <v>71</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -2469,11 +2527,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="95.25" thickBot="1">
+    <row r="17" spans="1:6" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="12" t="s">
         <v>74</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -2489,11 +2547,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="95.25" thickBot="1">
+    <row r="18" spans="1:6" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="12" t="s">
         <v>79</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -2509,11 +2567,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="95.25" thickBot="1">
+    <row r="19" spans="1:6" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="12" t="s">
         <v>83</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -2529,11 +2587,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="174" thickBot="1">
+    <row r="20" spans="1:6" ht="172.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="12" t="s">
         <v>89</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -2549,11 +2607,11 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="237" thickBot="1">
+    <row r="21" spans="1:6" ht="234.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="12" t="s">
         <v>95</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -2569,11 +2627,11 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="142.5" thickBot="1">
+    <row r="22" spans="1:6" ht="141" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="13" t="s">
         <v>96</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -2589,11 +2647,11 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="174" thickBot="1">
+    <row r="23" spans="1:6" ht="172.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="12" t="s">
         <v>100</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -2609,11 +2667,11 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="142.5" thickBot="1">
+    <row r="24" spans="1:6" ht="141" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -2629,11 +2687,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="142.5" thickBot="1">
+    <row r="25" spans="1:6" ht="141" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="12" t="s">
         <v>104</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -2649,11 +2707,11 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="32.25" thickBot="1">
+    <row r="26" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="12" t="s">
         <v>111</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -2669,11 +2727,11 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="95.25" thickBot="1">
+    <row r="27" spans="1:6" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="12" t="s">
         <v>117</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -2689,11 +2747,11 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="95.25" thickBot="1">
+    <row r="28" spans="1:6" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="12" t="s">
         <v>123</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -2709,11 +2767,11 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="95.25" thickBot="1">
+    <row r="29" spans="1:6" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="12" t="s">
         <v>125</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -2729,11 +2787,11 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="48" thickBot="1">
+    <row r="30" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="12" t="s">
         <v>129</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -2749,11 +2807,11 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="48" thickBot="1">
+    <row r="31" spans="1:6" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="12" t="s">
         <v>135</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -2769,11 +2827,11 @@
         <v>139</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="63.75" thickBot="1">
+    <row r="32" spans="1:6" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="12" t="s">
         <v>141</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -2789,11 +2847,11 @@
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="48" thickBot="1">
+    <row r="33" spans="1:6" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="12" t="s">
         <v>147</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -2809,11 +2867,11 @@
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="48" thickBot="1">
+    <row r="34" spans="1:6" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="12" t="s">
         <v>142</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -2829,11 +2887,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="16.5" thickBot="1">
+    <row r="35" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="12" t="s">
         <v>150</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -2849,11 +2907,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="16.5" thickBot="1">
+    <row r="36" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="12" t="s">
         <v>152</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -2869,11 +2927,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="63.75" thickBot="1">
+    <row r="37" spans="1:6" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="12" t="s">
         <v>153</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -2889,11 +2947,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="48" thickBot="1">
+    <row r="38" spans="1:6" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="12" t="s">
         <v>154</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -2909,11 +2967,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="79.5" thickBot="1">
+    <row r="39" spans="1:6" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="12" t="s">
         <v>155</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -2929,11 +2987,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="105.75" thickBot="1">
+    <row r="40" spans="1:6" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="14" t="s">
         <v>157</v>
       </c>
       <c r="C40" s="8" t="s">
@@ -2949,11 +3007,11 @@
         <v>161</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="105.75" thickBot="1">
+    <row r="41" spans="1:6" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="15" t="s">
         <v>163</v>
       </c>
       <c r="C41" s="9" t="s">
@@ -2969,11 +3027,11 @@
         <v>166</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="90.75" thickBot="1">
+    <row r="42" spans="1:6" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="15" t="s">
         <v>168</v>
       </c>
       <c r="C42" s="9" t="s">
@@ -2989,11 +3047,11 @@
         <v>172</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="60.75" thickBot="1">
+    <row r="43" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="15" t="s">
         <v>168</v>
       </c>
       <c r="C43" s="9" t="s">
@@ -3009,11 +3067,11 @@
         <v>175</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="135.75" thickBot="1">
+    <row r="44" spans="1:6" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="15" t="s">
         <v>177</v>
       </c>
       <c r="C44" s="9" t="s">
@@ -3029,11 +3087,11 @@
         <v>181</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="60.75" thickBot="1">
+    <row r="45" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="15" t="s">
         <v>183</v>
       </c>
       <c r="C45" s="9" t="s">
@@ -3049,11 +3107,11 @@
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="30.75" thickBot="1">
+    <row r="46" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="15" t="s">
         <v>187</v>
       </c>
       <c r="C46" s="9" t="s">
@@ -3069,11 +3127,11 @@
         <v>158</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="150.75" thickBot="1">
+    <row r="47" spans="1:6" ht="138.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="15" t="s">
         <v>191</v>
       </c>
       <c r="C47" s="9" t="s">
@@ -3089,11 +3147,11 @@
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="45.75" thickBot="1">
+    <row r="48" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="15" t="s">
         <v>195</v>
       </c>
       <c r="C48" s="9" t="s">
@@ -3109,11 +3167,11 @@
         <v>170</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="75.75" thickBot="1">
+    <row r="49" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="15" t="s">
         <v>199</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -3129,11 +3187,11 @@
         <v>158</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="75.75" thickBot="1">
+    <row r="50" spans="1:6" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="15" t="s">
         <v>203</v>
       </c>
       <c r="C50" s="9" t="s">
@@ -3149,11 +3207,11 @@
         <v>158</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="45.75" thickBot="1">
+    <row r="51" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="15" t="s">
         <v>208</v>
       </c>
       <c r="C51" s="9" t="s">
@@ -3169,11 +3227,11 @@
         <v>169</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="45.75" thickBot="1">
+    <row r="52" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="15" t="s">
         <v>213</v>
       </c>
       <c r="C52" s="9" t="s">
@@ -3189,11 +3247,11 @@
         <v>170</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="45.75" thickBot="1">
+    <row r="53" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="15" t="s">
         <v>218</v>
       </c>
       <c r="C53" s="9" t="s">
@@ -3209,11 +3267,11 @@
         <v>170</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="135.75" thickBot="1">
+    <row r="54" spans="1:6" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="15" t="s">
         <v>223</v>
       </c>
       <c r="C54" s="9" t="s">
@@ -3229,11 +3287,11 @@
         <v>158</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="45.75" thickBot="1">
+    <row r="55" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="15" t="s">
         <v>228</v>
       </c>
       <c r="C55" s="9" t="s">
@@ -3249,11 +3307,11 @@
         <v>158</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="75.75" thickBot="1">
+    <row r="56" spans="1:6" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="15" t="s">
         <v>233</v>
       </c>
       <c r="C56" s="9" t="s">
@@ -3269,11 +3327,11 @@
         <v>169</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="75.75" thickBot="1">
+    <row r="57" spans="1:6" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="15" t="s">
         <v>238</v>
       </c>
       <c r="C57" s="9" t="s">
@@ -3289,11 +3347,11 @@
         <v>169</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="105.75" thickBot="1">
+    <row r="58" spans="1:6" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="15" t="s">
         <v>243</v>
       </c>
       <c r="C58" s="9" t="s">
@@ -3309,11 +3367,11 @@
         <v>170</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="75.75" thickBot="1">
+    <row r="59" spans="1:6" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="15" t="s">
         <v>248</v>
       </c>
       <c r="C59" s="9" t="s">
@@ -3329,11 +3387,11 @@
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="60.75" thickBot="1">
+    <row r="60" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="15" t="s">
         <v>253</v>
       </c>
       <c r="C60" s="9" t="s">
@@ -3349,11 +3407,11 @@
         <v>158</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="60.75" thickBot="1">
+    <row r="61" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="15" t="s">
         <v>258</v>
       </c>
       <c r="C61" s="9" t="s">
@@ -3369,11 +3427,11 @@
         <v>169</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="135.75" thickBot="1">
+    <row r="62" spans="1:6" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="15" t="s">
         <v>263</v>
       </c>
       <c r="C62" s="9" t="s">
@@ -3389,11 +3447,11 @@
         <v>170</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="60.75" thickBot="1">
+    <row r="63" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="15" t="s">
         <v>268</v>
       </c>
       <c r="C63" s="9" t="s">
@@ -3409,11 +3467,11 @@
         <v>178</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="45.75" thickBot="1">
+    <row r="64" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="15" t="s">
         <v>273</v>
       </c>
       <c r="C64" s="9" t="s">
@@ -3429,11 +3487,11 @@
         <v>158</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="120.75" thickBot="1">
+    <row r="65" spans="1:6" ht="111" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="15" t="s">
         <v>278</v>
       </c>
       <c r="C65" s="9" t="s">
@@ -3449,11 +3507,11 @@
         <v>560</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="45.75" thickBot="1">
+    <row r="66" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="15" t="s">
         <v>281</v>
       </c>
       <c r="C66" s="9" t="s">
@@ -3469,11 +3527,11 @@
         <v>170</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="45.75" thickBot="1">
+    <row r="67" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="15" t="s">
         <v>286</v>
       </c>
       <c r="C67" s="9" t="s">
@@ -3489,11 +3547,11 @@
         <v>178</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="30.75" thickBot="1">
+    <row r="68" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="15" t="s">
         <v>291</v>
       </c>
       <c r="C68" s="9" t="s">
@@ -3509,11 +3567,11 @@
         <v>158</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="60.75" thickBot="1">
+    <row r="69" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="15" t="s">
         <v>296</v>
       </c>
       <c r="C69" s="9" t="s">
@@ -3529,11 +3587,11 @@
         <v>158</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="90.75" thickBot="1">
+    <row r="70" spans="1:6" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="15" t="s">
         <v>301</v>
       </c>
       <c r="C70" s="9" t="s">
@@ -3549,11 +3607,11 @@
         <v>169</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="60.75" thickBot="1">
+    <row r="71" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="15" t="s">
         <v>305</v>
       </c>
       <c r="C71" s="9" t="s">
@@ -3569,11 +3627,11 @@
         <v>170</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="45.75" thickBot="1">
+    <row r="72" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="15" t="s">
         <v>310</v>
       </c>
       <c r="C72" s="9" t="s">
@@ -3589,11 +3647,11 @@
         <v>178</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="30.75" thickBot="1">
+    <row r="73" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="15" t="s">
         <v>315</v>
       </c>
       <c r="C73" s="9" t="s">
@@ -3609,11 +3667,11 @@
         <v>158</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="30.75" thickBot="1">
+    <row r="74" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="15" t="s">
         <v>315</v>
       </c>
       <c r="C74" s="9" t="s">
@@ -3629,11 +3687,11 @@
         <v>158</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="60.75" thickBot="1">
+    <row r="75" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="15" t="s">
         <v>323</v>
       </c>
       <c r="C75" s="9" t="s">
@@ -3649,11 +3707,11 @@
         <v>169</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="60.75" thickBot="1">
+    <row r="76" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="15" t="s">
         <v>328</v>
       </c>
       <c r="C76" s="9" t="s">
@@ -3669,11 +3727,11 @@
         <v>170</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="45.75" thickBot="1">
+    <row r="77" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="15" t="s">
         <v>333</v>
       </c>
       <c r="C77" s="9" t="s">
@@ -3689,11 +3747,11 @@
         <v>178</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="135.75" thickBot="1">
+    <row r="78" spans="1:6" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="15" t="s">
         <v>338</v>
       </c>
       <c r="C78" s="9" t="s">
@@ -3709,11 +3767,11 @@
         <v>158</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="105.75" thickBot="1">
+    <row r="79" spans="1:6" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="15" t="s">
         <v>343</v>
       </c>
       <c r="C79" s="9" t="s">
@@ -3729,11 +3787,11 @@
         <v>169</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="45.75" thickBot="1">
+    <row r="80" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="15" t="s">
         <v>348</v>
       </c>
       <c r="C80" s="9" t="s">
@@ -3749,11 +3807,11 @@
         <v>170</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="180.75" thickBot="1">
+    <row r="81" spans="1:6" ht="152.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="15" t="s">
         <v>352</v>
       </c>
       <c r="C81" s="9" t="s">
@@ -3769,11 +3827,11 @@
         <v>178</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="60.75" thickBot="1">
+    <row r="82" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="15" t="s">
         <v>356</v>
       </c>
       <c r="C82" s="9" t="s">
@@ -3789,11 +3847,11 @@
         <v>158</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="45.75" thickBot="1">
+    <row r="83" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="15" t="s">
         <v>361</v>
       </c>
       <c r="C83" s="9" t="s">
@@ -3809,11 +3867,11 @@
         <v>169</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="60.75" thickBot="1">
+    <row r="84" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="15" t="s">
         <v>364</v>
       </c>
       <c r="C84" s="9" t="s">
@@ -3829,11 +3887,11 @@
         <v>178</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="135.75" thickBot="1">
+    <row r="85" spans="1:6" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="15" t="s">
         <v>369</v>
       </c>
       <c r="C85" s="9" t="s">
@@ -3849,11 +3907,11 @@
         <v>169</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="135.75" thickBot="1">
+    <row r="86" spans="1:6" ht="111" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="15" t="s">
         <v>374</v>
       </c>
       <c r="C86" s="9" t="s">
@@ -3869,11 +3927,11 @@
         <v>170</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="150.75" thickBot="1">
+    <row r="87" spans="1:6" ht="138.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="15" t="s">
         <v>378</v>
       </c>
       <c r="C87" s="9" t="s">
@@ -3889,11 +3947,11 @@
         <v>178</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="105.75" thickBot="1">
+    <row r="88" spans="1:6" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="15" t="s">
         <v>383</v>
       </c>
       <c r="C88" s="9" t="s">
@@ -3909,11 +3967,11 @@
         <v>158</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="90.75" thickBot="1">
+    <row r="89" spans="1:6" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="15" t="s">
         <v>388</v>
       </c>
       <c r="C89" s="9" t="s">
@@ -3929,11 +3987,11 @@
         <v>169</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="105.75" thickBot="1">
+    <row r="90" spans="1:6" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="15" t="s">
         <v>391</v>
       </c>
       <c r="C90" s="9" t="s">
@@ -3949,11 +4007,11 @@
         <v>170</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="90.75" thickBot="1">
+    <row r="91" spans="1:6" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="15" t="s">
         <v>396</v>
       </c>
       <c r="C91" s="9" t="s">
@@ -3969,11 +4027,11 @@
         <v>178</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="60.75" thickBot="1">
+    <row r="92" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="B92" s="15" t="s">
         <v>399</v>
       </c>
       <c r="C92" s="9" t="s">
@@ -3989,11 +4047,11 @@
         <v>158</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="90.75" thickBot="1">
+    <row r="93" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B93" s="15" t="s">
         <v>404</v>
       </c>
       <c r="C93" s="9" t="s">
@@ -4009,11 +4067,11 @@
         <v>169</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="75.75" thickBot="1">
+    <row r="94" spans="1:6" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="B94" s="15" t="s">
         <v>409</v>
       </c>
       <c r="C94" s="9" t="s">
@@ -4029,11 +4087,11 @@
         <v>170</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="75.75" thickBot="1">
+    <row r="95" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="15" t="s">
         <v>414</v>
       </c>
       <c r="C95" s="9" t="s">
@@ -4049,11 +4107,11 @@
         <v>178</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="120.75" thickBot="1">
+    <row r="96" spans="1:6" ht="111" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="15" t="s">
         <v>419</v>
       </c>
       <c r="C96" s="9" t="s">
@@ -4069,11 +4127,11 @@
         <v>158</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="45.75" thickBot="1">
+    <row r="97" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="15" t="s">
         <v>424</v>
       </c>
       <c r="C97" s="9" t="s">
@@ -4089,11 +4147,11 @@
         <v>169</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="45.75" thickBot="1">
+    <row r="98" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="15" t="s">
         <v>429</v>
       </c>
       <c r="C98" s="9" t="s">
@@ -4109,11 +4167,11 @@
         <v>170</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="45.75" thickBot="1">
+    <row r="99" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="B99" s="9" t="s">
+      <c r="B99" s="15" t="s">
         <v>434</v>
       </c>
       <c r="C99" s="9" t="s">
@@ -4129,11 +4187,11 @@
         <v>178</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="60.75" thickBot="1">
+    <row r="100" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="B100" s="9" t="s">
+      <c r="B100" s="15" t="s">
         <v>439</v>
       </c>
       <c r="C100" s="9" t="s">
@@ -4149,11 +4207,11 @@
         <v>158</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="45.75" thickBot="1">
+    <row r="101" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="15" t="s">
         <v>444</v>
       </c>
       <c r="C101" s="9" t="s">
@@ -4169,11 +4227,11 @@
         <v>169</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="90.75" thickBot="1">
+    <row r="102" spans="1:6" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="B102" s="15" t="s">
         <v>449</v>
       </c>
       <c r="C102" s="9" t="s">
@@ -4189,11 +4247,11 @@
         <v>170</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="120.75" thickBot="1">
+    <row r="103" spans="1:6" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="B103" s="9" t="s">
+      <c r="B103" s="15" t="s">
         <v>453</v>
       </c>
       <c r="C103" s="9" t="s">
@@ -4209,11 +4267,11 @@
         <v>178</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="135.75" thickBot="1">
+    <row r="104" spans="1:6" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="B104" s="9" t="s">
+      <c r="B104" s="15" t="s">
         <v>458</v>
       </c>
       <c r="C104" s="9" t="s">
@@ -4229,11 +4287,11 @@
         <v>158</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="135.75" thickBot="1">
+    <row r="105" spans="1:6" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="B105" s="9" t="s">
+      <c r="B105" s="15" t="s">
         <v>458</v>
       </c>
       <c r="C105" s="9" t="s">
@@ -4249,11 +4307,11 @@
         <v>169</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="120.75" thickBot="1">
+    <row r="106" spans="1:6" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="B106" s="9" t="s">
+      <c r="B106" s="15" t="s">
         <v>453</v>
       </c>
       <c r="C106" s="9" t="s">
@@ -4269,11 +4327,11 @@
         <v>170</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="120.75" thickBot="1">
+    <row r="107" spans="1:6" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="B107" s="9" t="s">
+      <c r="B107" s="15" t="s">
         <v>463</v>
       </c>
       <c r="C107" s="9" t="s">
@@ -4289,11 +4347,11 @@
         <v>178</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="90.75" thickBot="1">
+    <row r="108" spans="1:6" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="B108" s="9" t="s">
+      <c r="B108" s="15" t="s">
         <v>468</v>
       </c>
       <c r="C108" s="9" t="s">
@@ -4309,11 +4367,11 @@
         <v>158</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="90.75" thickBot="1">
+    <row r="109" spans="1:6" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="B109" s="15" t="s">
         <v>473</v>
       </c>
       <c r="C109" s="9" t="s">
@@ -4329,11 +4387,11 @@
         <v>169</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="75.75" thickBot="1">
+    <row r="110" spans="1:6" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="B110" s="9" t="s">
+      <c r="B110" s="15" t="s">
         <v>142</v>
       </c>
       <c r="C110" s="9" t="s">
@@ -4349,11 +4407,11 @@
         <v>170</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="75.75" thickBot="1">
+    <row r="111" spans="1:6" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="B111" s="9" t="s">
+      <c r="B111" s="15" t="s">
         <v>481</v>
       </c>
       <c r="C111" s="9" t="s">
@@ -4369,11 +4427,11 @@
         <v>178</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="45.75" thickBot="1">
+    <row r="112" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="B112" s="15" t="s">
         <v>486</v>
       </c>
       <c r="C112" s="9" t="s">
@@ -4389,11 +4447,11 @@
         <v>158</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="90.75" thickBot="1">
+    <row r="113" spans="1:6" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="B113" s="9" t="s">
+      <c r="B113" s="15" t="s">
         <v>468</v>
       </c>
       <c r="C113" s="9" t="s">
@@ -4409,11 +4467,11 @@
         <v>169</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="120.75" thickBot="1">
+    <row r="114" spans="1:6" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="B114" s="9" t="s">
+      <c r="B114" s="15" t="s">
         <v>494</v>
       </c>
       <c r="C114" s="9" t="s">
@@ -4429,11 +4487,11 @@
         <v>170</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="165.75" thickBot="1">
+    <row r="115" spans="1:6" ht="111" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="B115" s="9" t="s">
+      <c r="B115" s="15" t="s">
         <v>499</v>
       </c>
       <c r="C115" s="9" t="s">
@@ -4449,11 +4507,11 @@
         <v>178</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="165.75" thickBot="1">
+    <row r="116" spans="1:6" ht="111" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="10" t="s">
         <v>503</v>
       </c>
-      <c r="B116" s="9" t="s">
+      <c r="B116" s="15" t="s">
         <v>504</v>
       </c>
       <c r="C116" s="9" t="s">
@@ -4469,11 +4527,11 @@
         <v>158</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="120.75" thickBot="1">
+    <row r="117" spans="1:6" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="B117" s="9" t="s">
+      <c r="B117" s="15" t="s">
         <v>508</v>
       </c>
       <c r="C117" s="9" t="s">
@@ -4489,11 +4547,11 @@
         <v>169</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="45.75" thickBot="1">
+    <row r="118" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="B118" s="9" t="s">
+      <c r="B118" s="15" t="s">
         <v>510</v>
       </c>
       <c r="C118" s="9" t="s">
@@ -4509,11 +4567,11 @@
         <v>170</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="60.75" thickBot="1">
+    <row r="119" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="B119" s="15" t="s">
         <v>218</v>
       </c>
       <c r="C119" s="9" t="s">
@@ -4529,11 +4587,11 @@
         <v>178</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="60.75" thickBot="1">
+    <row r="120" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="B120" s="9" t="s">
+      <c r="B120" s="15" t="s">
         <v>518</v>
       </c>
       <c r="C120" s="9" t="s">
@@ -4549,11 +4607,11 @@
         <v>158</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="75.75" thickBot="1">
+    <row r="121" spans="1:6" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="10" t="s">
         <v>522</v>
       </c>
-      <c r="B121" s="9" t="s">
+      <c r="B121" s="15" t="s">
         <v>523</v>
       </c>
       <c r="C121" s="9" t="s">
@@ -4569,11 +4627,11 @@
         <v>169</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="45.75" thickBot="1">
+    <row r="122" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="B122" s="9" t="s">
+      <c r="B122" s="15" t="s">
         <v>528</v>
       </c>
       <c r="C122" s="9" t="s">
@@ -4589,11 +4647,11 @@
         <v>178</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="165.75" thickBot="1">
+    <row r="123" spans="1:6" ht="111" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="B123" s="9" t="s">
+      <c r="B123" s="15" t="s">
         <v>494</v>
       </c>
       <c r="C123" s="9" t="s">
@@ -4609,11 +4667,11 @@
         <v>170</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="60.75" thickBot="1">
+    <row r="124" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="B124" s="9" t="s">
+      <c r="B124" s="15" t="s">
         <v>168</v>
       </c>
       <c r="C124" s="9" t="s">
@@ -4629,11 +4687,11 @@
         <v>158</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="120.75" thickBot="1">
+    <row r="125" spans="1:6" ht="111" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="B125" s="9" t="s">
+      <c r="B125" s="15" t="s">
         <v>177</v>
       </c>
       <c r="C125" s="9" t="s">
@@ -4649,11 +4707,11 @@
         <v>169</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="45.75" thickBot="1">
+    <row r="126" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="B126" s="9" t="s">
+      <c r="B126" s="15" t="s">
         <v>183</v>
       </c>
       <c r="C126" s="9" t="s">
@@ -4669,11 +4727,11 @@
         <v>170</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="60.75" thickBot="1">
+    <row r="127" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="B127" s="9" t="s">
+      <c r="B127" s="15" t="s">
         <v>258</v>
       </c>
       <c r="C127" s="9" t="s">
@@ -4689,11 +4747,11 @@
         <v>158</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="45.75" thickBot="1">
+    <row r="128" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="B128" s="9" t="s">
+      <c r="B128" s="15" t="s">
         <v>539</v>
       </c>
       <c r="C128" s="9" t="s">
@@ -4709,11 +4767,11 @@
         <v>169</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="105.75" thickBot="1">
+    <row r="129" spans="1:6" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="B129" s="9" t="s">
+      <c r="B129" s="15" t="s">
         <v>544</v>
       </c>
       <c r="C129" s="9" t="s">
@@ -4729,11 +4787,11 @@
         <v>170</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="105.75" thickBot="1">
+    <row r="130" spans="1:6" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="B130" s="9" t="s">
+      <c r="B130" s="15" t="s">
         <v>549</v>
       </c>
       <c r="C130" s="9" t="s">
@@ -4749,11 +4807,11 @@
         <v>178</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="105.75" thickBot="1">
+    <row r="131" spans="1:6" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="B131" s="9" t="s">
+      <c r="B131" s="15" t="s">
         <v>157</v>
       </c>
       <c r="C131" s="9" t="s">
@@ -4769,11 +4827,11 @@
         <v>560</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="105.75" thickBot="1">
+    <row r="132" spans="1:6" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="B132" s="9" t="s">
+      <c r="B132" s="15" t="s">
         <v>163</v>
       </c>
       <c r="C132" s="9" t="s">
@@ -4789,11 +4847,11 @@
         <v>169</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="90.75" thickBot="1">
+    <row r="133" spans="1:6" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="B133" s="9" t="s">
+      <c r="B133" s="15" t="s">
         <v>168</v>
       </c>
       <c r="C133" s="9" t="s">
@@ -4809,11 +4867,11 @@
         <v>562</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="60.75" thickBot="1">
+    <row r="134" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B134" s="9" t="s">
+      <c r="B134" s="15" t="s">
         <v>168</v>
       </c>
       <c r="C134" s="9" t="s">
@@ -4829,11 +4887,11 @@
         <v>178</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="135.75" thickBot="1">
+    <row r="135" spans="1:6" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="B135" s="9" t="s">
+      <c r="B135" s="15" t="s">
         <v>177</v>
       </c>
       <c r="C135" s="9" t="s">
@@ -4849,11 +4907,11 @@
         <v>158</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="60.75" thickBot="1">
+    <row r="136" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="B136" s="9" t="s">
+      <c r="B136" s="15" t="s">
         <v>183</v>
       </c>
       <c r="C136" s="9" t="s">
@@ -4869,11 +4927,11 @@
         <v>169</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="45.75" thickBot="1">
+    <row r="137" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="B137" s="9" t="s">
+      <c r="B137" s="15" t="s">
         <v>187</v>
       </c>
       <c r="C137" s="9" t="s">
@@ -4889,11 +4947,11 @@
         <v>170</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="150.75" thickBot="1">
+    <row r="138" spans="1:6" ht="138.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="B138" s="9" t="s">
+      <c r="B138" s="15" t="s">
         <v>191</v>
       </c>
       <c r="C138" s="9" t="s">
@@ -4909,11 +4967,11 @@
         <v>178</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="45.75" thickBot="1">
+    <row r="139" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="B139" s="9" t="s">
+      <c r="B139" s="15" t="s">
         <v>195</v>
       </c>
       <c r="C139" s="9" t="s">
@@ -4929,11 +4987,11 @@
         <v>158</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="45.75" thickBot="1">
+    <row r="140" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="10" t="s">
         <v>553</v>
       </c>
-      <c r="B140" s="9" t="s">
+      <c r="B140" s="15" t="s">
         <v>197</v>
       </c>
       <c r="C140" s="9" t="s">
@@ -4949,11 +5007,11 @@
         <v>169</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="75.75" thickBot="1">
+    <row r="141" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="B141" s="9" t="s">
+      <c r="B141" s="15" t="s">
         <v>199</v>
       </c>
       <c r="C141" s="9" t="s">
@@ -4969,11 +5027,11 @@
         <v>170</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="75.75" thickBot="1">
+    <row r="142" spans="1:6" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="B142" s="9" t="s">
+      <c r="B142" s="15" t="s">
         <v>203</v>
       </c>
       <c r="C142" s="9" t="s">
@@ -4989,11 +5047,11 @@
         <v>178</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="45.75" thickBot="1">
+    <row r="143" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="B143" s="9" t="s">
+      <c r="B143" s="15" t="s">
         <v>208</v>
       </c>
       <c r="C143" s="9" t="s">
@@ -5009,11 +5067,11 @@
         <v>158</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="45.75" thickBot="1">
+    <row r="144" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="B144" s="9" t="s">
+      <c r="B144" s="15" t="s">
         <v>213</v>
       </c>
       <c r="C144" s="9" t="s">
@@ -5029,11 +5087,11 @@
         <v>169</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="45.75" thickBot="1">
+    <row r="145" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="B145" s="9" t="s">
+      <c r="B145" s="15" t="s">
         <v>218</v>
       </c>
       <c r="C145" s="9" t="s">
@@ -5049,11 +5107,11 @@
         <v>170</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="135.75" thickBot="1">
+    <row r="146" spans="1:6" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="B146" s="9" t="s">
+      <c r="B146" s="15" t="s">
         <v>223</v>
       </c>
       <c r="C146" s="9" t="s">
@@ -5069,11 +5127,11 @@
         <v>178</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="45.75" thickBot="1">
+    <row r="147" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="10" t="s">
         <v>558</v>
       </c>
-      <c r="B147" s="9" t="s">
+      <c r="B147" s="15" t="s">
         <v>228</v>
       </c>
       <c r="C147" s="9" t="s">
@@ -5089,11 +5147,11 @@
         <v>158</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="95.25" thickBot="1">
+    <row r="148" spans="1:6" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C148" s="2" t="s">
@@ -5109,11 +5167,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="48" thickBot="1">
+    <row r="149" spans="1:6" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="B149" s="4" t="s">
+      <c r="B149" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C149" s="4" t="s">
@@ -5129,11 +5187,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="63.75" thickBot="1">
+    <row r="150" spans="1:6" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="B150" s="4" t="s">
+      <c r="B150" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C150" s="4" t="s">
@@ -5150,18 +5208,21 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I1:Q1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -5169,12 +5230,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
